--- a/Course II/ЭИС/Практическое занятие 5 (студентам).xlsx
+++ b/Course II/ЭИС/Практическое занятие 5 (студентам).xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>Проект</t>
   </si>
@@ -282,6 +282,54 @@
   </si>
   <si>
     <t>Этот проект предпочтительнее</t>
+  </si>
+  <si>
+    <t>кредит</t>
+  </si>
+  <si>
+    <t>ставка</t>
+  </si>
+  <si>
+    <t>кпер</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>Lt</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Yt</t>
+  </si>
+  <si>
+    <t>Кпер</t>
+  </si>
+  <si>
+    <t>Долг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставка </t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ставка </t>
+  </si>
+  <si>
+    <t>Переплата</t>
+  </si>
+  <si>
+    <t>Ставка</t>
   </si>
 </sst>
 </file>
@@ -344,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +414,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -527,6 +593,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,7 +609,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -577,7 +679,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2485C75-321A-4B84-9867-249005C9086F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2485C75-321A-4B84-9867-249005C9086F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -903,17 +1005,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.140625" customWidth="1"/>
   </cols>
@@ -948,21 +1052,21 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="43"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -975,7 +1079,7 @@
       <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
@@ -1165,11 +1269,11 @@
       <c r="D22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="42">
         <f>PMT(10%,1,-I7)</f>
         <v>999.99999999999909</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="42">
         <f>PMT(10%,3,-I8)</f>
         <v>978.85196374622228</v>
       </c>
@@ -1182,7 +1286,7 @@
         <f>E22/0.1</f>
         <v>9999.9999999999909</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="42">
         <f>F22/0.1</f>
         <v>9788.5196374622228</v>
       </c>
@@ -1200,21 +1304,21 @@
       <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="43" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="43"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="2">
         <v>0</v>
       </c>
@@ -1227,7 +1331,7 @@
       <c r="G27" s="2">
         <v>3</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
@@ -1342,15 +1446,15 @@
       <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="32" t="s">
@@ -1377,11 +1481,11 @@
         <v>200</v>
       </c>
       <c r="D41" s="35"/>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="35">
         <v>1000000</v>
       </c>
@@ -1562,61 +1666,662 @@
       <c r="B62" s="16"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="52">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="53">
+        <f>B63*B64/(1-(1+B64)^-B65)</f>
+        <v>253810.64934311647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="47"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="47"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="51">
+        <v>1</v>
+      </c>
+      <c r="B70" s="48">
+        <f>B63</f>
+        <v>900000</v>
+      </c>
+      <c r="C70" s="48">
+        <f>E70-D70</f>
+        <v>208810.64934311647</v>
+      </c>
+      <c r="D70" s="41">
+        <f>$B$64*B70</f>
+        <v>45000</v>
+      </c>
+      <c r="E70" s="48">
+        <f>$B$66</f>
+        <v>253810.64934311647</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="51">
+        <v>2</v>
+      </c>
+      <c r="B71" s="48">
+        <f>B70-C70</f>
+        <v>691189.35065688356</v>
+      </c>
+      <c r="C71" s="48">
+        <f>E71-D71</f>
+        <v>219251.18181027228</v>
+      </c>
+      <c r="D71" s="41">
+        <f t="shared" ref="D71" si="0">$B$64*B71</f>
+        <v>34559.467532844181</v>
+      </c>
+      <c r="E71" s="48">
+        <f t="shared" ref="E71:E73" si="1">$B$66</f>
+        <v>253810.64934311647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="51">
+        <v>3</v>
+      </c>
+      <c r="B72" s="48">
+        <f t="shared" ref="B72:B73" si="2">B71-C71</f>
+        <v>471938.16884661128</v>
+      </c>
+      <c r="C72" s="48">
+        <f t="shared" ref="C72:C73" si="3">E72-D72</f>
+        <v>230213.7409007859</v>
+      </c>
+      <c r="D72" s="41">
+        <f t="shared" ref="D72:D73" si="4">$B$64*B72</f>
+        <v>23596.908442330565</v>
+      </c>
+      <c r="E72" s="48">
+        <f t="shared" si="1"/>
+        <v>253810.64934311647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="51">
+        <v>4</v>
+      </c>
+      <c r="B73" s="48">
+        <f t="shared" si="2"/>
+        <v>241724.42794582539</v>
+      </c>
+      <c r="C73" s="48">
+        <f t="shared" si="3"/>
+        <v>241724.42794582521</v>
+      </c>
+      <c r="D73" s="41">
+        <f t="shared" si="4"/>
+        <v>12086.22139729127</v>
+      </c>
+      <c r="E73" s="48">
+        <f t="shared" si="1"/>
+        <v>253810.64934311647</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="16"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="16"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B77" s="16"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="16"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="16"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="51">
+        <v>1</v>
+      </c>
+      <c r="B84" s="55">
+        <f>B79-C84</f>
+        <v>836202.51920525462</v>
+      </c>
+      <c r="C84" s="55">
+        <f>PPMT(B$81,A84,B$80,-B$79)</f>
+        <v>163797.48079474538</v>
+      </c>
+      <c r="D84" s="55">
+        <f>IPMT($B$81,A84,$B$80,-$B$79)</f>
+        <v>100000</v>
+      </c>
+      <c r="E84" s="55">
+        <f>PMT($B$81,$B$80,-$B$79)</f>
+        <v>263797.48079474544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="51">
+        <v>2</v>
+      </c>
+      <c r="B85" s="55">
+        <f>B84-C85</f>
+        <v>656025.29033103469</v>
+      </c>
+      <c r="C85" s="55">
+        <f t="shared" ref="C85:C88" si="5">PPMT(B$81,A85,B$80,-B$79)</f>
+        <v>180177.22887421996</v>
+      </c>
+      <c r="D85" s="55">
+        <f t="shared" ref="D85:D88" si="6">IPMT($B$81,A85,$B$80,-$B$79)</f>
+        <v>83620.251920525479</v>
+      </c>
+      <c r="E85" s="55">
+        <f t="shared" ref="E85:E88" si="7">PMT($B$81,$B$80,-$B$79)</f>
+        <v>263797.48079474544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="51">
+        <v>3</v>
+      </c>
+      <c r="B86" s="55">
+        <f t="shared" ref="B86:B88" si="8">B85-C86</f>
+        <v>457830.33856939274</v>
+      </c>
+      <c r="C86" s="55">
+        <f t="shared" si="5"/>
+        <v>198194.95176164195</v>
+      </c>
+      <c r="D86" s="55">
+        <f t="shared" si="6"/>
+        <v>65602.529033103463</v>
+      </c>
+      <c r="E86" s="55">
+        <f t="shared" si="7"/>
+        <v>263797.48079474544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="51">
+        <v>4</v>
+      </c>
+      <c r="B87" s="55">
+        <f t="shared" si="8"/>
+        <v>239815.89163158662</v>
+      </c>
+      <c r="C87" s="55">
+        <f t="shared" si="5"/>
+        <v>218014.44693780612</v>
+      </c>
+      <c r="D87" s="55">
+        <f t="shared" si="6"/>
+        <v>45783.033856939284</v>
+      </c>
+      <c r="E87" s="55">
+        <f t="shared" si="7"/>
+        <v>263797.48079474544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="51">
+        <v>5</v>
+      </c>
+      <c r="B88" s="55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="55">
+        <f t="shared" si="5"/>
+        <v>239815.89163158671</v>
+      </c>
+      <c r="D88" s="55">
+        <f t="shared" si="6"/>
+        <v>23981.589163158671</v>
+      </c>
+      <c r="E88" s="55">
+        <f t="shared" si="7"/>
+        <v>263797.48079474544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="16"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="16"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="16"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="51">
+        <v>1</v>
+      </c>
+      <c r="B99" s="54">
+        <f>$B$94-C99</f>
+        <v>70000</v>
+      </c>
+      <c r="C99" s="54">
+        <f>E99-D99</f>
+        <v>30000</v>
+      </c>
+      <c r="D99" s="54">
+        <f>IPMT(B$96,A99,B$95,-B$94)</f>
+        <v>10000</v>
+      </c>
+      <c r="E99" s="54">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="51">
+        <v>2</v>
+      </c>
+      <c r="B100" s="54">
+        <f>$B$94-C100</f>
+        <v>87845.291962939024</v>
+      </c>
+      <c r="C100" s="54">
+        <f>E100-D100</f>
+        <v>12154.70803706098</v>
+      </c>
+      <c r="D100" s="54">
+        <f t="shared" ref="D100:D102" si="9">IPMT(B$96,A100,B$95,-B$94)</f>
+        <v>7845.2919629390208</v>
+      </c>
+      <c r="E100" s="54">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="51">
+        <v>3</v>
+      </c>
+      <c r="B101" s="54">
+        <f>$B$94-C101</f>
+        <v>75475.113122171941</v>
+      </c>
+      <c r="C101" s="54">
+        <f>E101-D101</f>
+        <v>24524.886877828056</v>
+      </c>
+      <c r="D101" s="54">
+        <f t="shared" si="9"/>
+        <v>5475.1131221719452</v>
+      </c>
+      <c r="E101" s="54">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="51">
+        <v>4</v>
+      </c>
+      <c r="B102" s="54">
+        <f>B101-C102</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="54">
+        <f>B101</f>
+        <v>75475.113122171941</v>
+      </c>
+      <c r="D102" s="54">
+        <f t="shared" si="9"/>
+        <v>2867.916397328162</v>
+      </c>
+      <c r="E102" s="54">
+        <v>35970</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="59">
+        <f>SUM(E99:E102)-B94</f>
+        <v>25970</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="16"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="16"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B109" s="56">
+        <v>10000</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="57">
+        <v>5</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" s="56">
+        <v>0.08</v>
+      </c>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D114" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="61">
+        <v>1</v>
+      </c>
+      <c r="B115" s="54">
+        <f>B109</f>
+        <v>10000</v>
+      </c>
+      <c r="C115" s="54">
+        <f>E115-D115</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="54">
+        <f>IPMT(B111,A115,B110,-B109)</f>
+        <v>800</v>
+      </c>
+      <c r="E115" s="54">
+        <f>B109*B111</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="61">
+        <v>2</v>
+      </c>
+      <c r="B116" s="54">
+        <f>$B115-$C116</f>
+        <v>10000</v>
+      </c>
+      <c r="C116" s="54">
+        <f>E116-D116</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="54">
+        <f>IPMT(B111,1,B110,-B109)</f>
+        <v>800</v>
+      </c>
+      <c r="E116" s="54">
+        <f>B109*B111</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="61">
+        <v>3</v>
+      </c>
+      <c r="B117" s="54">
+        <f t="shared" ref="B117:B119" si="10">$B116-$C117</f>
+        <v>10000</v>
+      </c>
+      <c r="C117" s="54">
+        <f t="shared" ref="C117:C119" si="11">E117-D117</f>
+        <v>0</v>
+      </c>
+      <c r="D117" s="54">
+        <f>IPMT(B111,1,B110,-B109)</f>
+        <v>800</v>
+      </c>
+      <c r="E117" s="54">
+        <f>B109*B111</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="61">
+        <v>4</v>
+      </c>
+      <c r="B118" s="54">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="C118" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D118" s="54">
+        <f>IPMT(B111,1,B110,-B109)</f>
+        <v>800</v>
+      </c>
+      <c r="E118" s="54">
+        <f>B109*B111</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="61">
+        <v>5</v>
+      </c>
+      <c r="B119" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C119" s="54">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="D119" s="54">
+        <f>IPMT(B111,1,B110,-B109)</f>
+        <v>800</v>
+      </c>
+      <c r="E119" s="56">
+        <f>B109+E118</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" s="59">
+        <f>SUM(E115:E119)-B109</f>
+        <v>4000</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
